--- a/Excel_finished.xlsx
+++ b/Excel_finished.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\New folder (2)\New folder\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDDC3B60-3559-419D-9E30-1D7898F13318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676F32C2-1A8F-4130-B108-027007A1CE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3F7D8BAC-9BC7-4009-A5F3-3B042A8A00EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3F7D8BAC-9BC7-4009-A5F3-3B042A8A00EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -210,7 +210,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,8 +239,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +257,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -280,13 +299,483 @@
     </xf>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6699FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -312,7 +801,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_finished.xlsx]Question1!PivotTable2</c:name>
+    <c:name>[Excel_finished (1).xlsx]Question1!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -776,7 +1265,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_finished.xlsx]Question1!PivotTable2</c:name>
+    <c:name>[Excel_finished (1).xlsx]Question1!PivotTable2</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1248,7 +1737,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_finished.xlsx]Question2!PivotTable3</c:name>
+    <c:name>[Excel_finished (1).xlsx]Question2!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1295,49 +1784,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1422,49 +1869,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2184,7 +2589,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel_finished.xlsx]Question3!PivotTable4</c:name>
+    <c:name>[Excel_finished (1).xlsx]Question3!PivotTable4</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -6105,7 +6510,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9507834-29A7-4C31-AEE8-3CAA67925754}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9507834-29A7-4C31-AEE8-3CAA67925754}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -6208,7 +6613,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{376F3A94-072A-40EB-909B-39C5FF781071}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{376F3A94-072A-40EB-909B-39C5FF781071}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A3:D33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -6353,6 +6758,680 @@
   <dataFields count="1">
     <dataField name="Dollar Spend" fld="6" baseField="4" baseItem="0" numFmtId="164"/>
   </dataFields>
+  <formats count="56">
+    <format dxfId="69">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="68">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="67">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="66">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="64">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="61">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="58">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="55">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="54">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="53">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="52">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="51">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="50">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="49">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="47">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="46">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="45">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="44">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="43">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="41">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="39">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="4" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="4" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="4" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="4" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="4" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="4" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="4" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="1" count="0" selected="0"/>
+          <reference field="4" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -6392,7 +7471,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE8A3CF2-4EBE-4CBF-971A-E7C2743FCADC}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE8A3CF2-4EBE-4CBF-971A-E7C2743FCADC}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -9359,8 +10438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8EA0AF-910B-43D2-AAFE-83C7DE04B521}">
   <dimension ref="A3:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9406,10 +10485,10 @@
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>26726</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>20712</v>
       </c>
       <c r="D5" s="7">
@@ -9420,10 +10499,10 @@
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>18061</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>4967</v>
       </c>
       <c r="D6" s="7">
@@ -9434,10 +10513,10 @@
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>8665</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>11904</v>
       </c>
       <c r="D7" s="7">
@@ -9448,8 +10527,8 @@
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9">
         <v>3841</v>
       </c>
       <c r="D8" s="7">
@@ -9460,10 +10539,10 @@
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>25890</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>25052</v>
       </c>
       <c r="D9" s="7">
@@ -9474,10 +10553,10 @@
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>9679</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>15418</v>
       </c>
       <c r="D10" s="7">
@@ -9488,10 +10567,10 @@
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>7142</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>5299</v>
       </c>
       <c r="D11" s="7">
@@ -9502,10 +10581,10 @@
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>9069</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>4335</v>
       </c>
       <c r="D12" s="7">
@@ -9516,10 +10595,10 @@
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>20514</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>15473</v>
       </c>
       <c r="D13" s="7">
@@ -9530,10 +10609,10 @@
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>8926</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="7">
         <v>8926</v>
       </c>
@@ -9542,10 +10621,10 @@
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>9769</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="9">
         <v>4692</v>
       </c>
       <c r="D15" s="7">
@@ -9556,10 +10635,10 @@
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>1819</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="9">
         <v>10781</v>
       </c>
       <c r="D16" s="7">
@@ -9570,10 +10649,10 @@
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>10796</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="9">
         <v>24262</v>
       </c>
       <c r="D17" s="7">
@@ -9584,10 +10663,10 @@
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="8">
         <v>7182</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="9">
         <v>17767</v>
       </c>
       <c r="D18" s="7">
@@ -9598,10 +10677,10 @@
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>3614</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="9">
         <v>1577</v>
       </c>
       <c r="D19" s="7">
@@ -9612,8 +10691,8 @@
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9">
         <v>4918</v>
       </c>
       <c r="D20" s="7">
@@ -9624,10 +10703,10 @@
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>10638</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="9">
         <v>22554</v>
       </c>
       <c r="D21" s="7">
@@ -9638,10 +10717,10 @@
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="8">
         <v>2571</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="9">
         <v>1527</v>
       </c>
       <c r="D22" s="7">
@@ -9652,10 +10731,10 @@
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>8067</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="9">
         <v>13546</v>
       </c>
       <c r="D23" s="7">
@@ -9666,8 +10745,8 @@
       <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9">
         <v>7481</v>
       </c>
       <c r="D24" s="7">
@@ -9678,10 +10757,10 @@
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="8">
         <v>31031</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="9">
         <v>27810</v>
       </c>
       <c r="D25" s="7">
@@ -9692,10 +10771,10 @@
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="8">
         <v>19782</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="9">
         <v>11515</v>
       </c>
       <c r="D26" s="7">
@@ -9706,10 +10785,10 @@
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>4091</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="9">
         <v>3246</v>
       </c>
       <c r="D27" s="7">
@@ -9720,10 +10799,10 @@
       <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>7158</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="9">
         <v>13049</v>
       </c>
       <c r="D28" s="7">
@@ -9734,10 +10813,10 @@
       <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="8">
         <v>7761</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="9">
         <v>31401</v>
       </c>
       <c r="D29" s="7">
@@ -9748,10 +10827,10 @@
       <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="8">
         <v>4483</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="9">
         <v>20523</v>
       </c>
       <c r="D30" s="7">
@@ -9762,8 +10841,8 @@
       <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9">
         <v>10878</v>
       </c>
       <c r="D31" s="7">
@@ -9774,10 +10853,10 @@
       <c r="A32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="8">
         <v>3278</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7">
         <v>3278</v>
       </c>
@@ -9806,7 +10885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DA755C-1A05-4B15-95F6-2C76CFF6A840}">
   <dimension ref="A3:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
